--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02EF78-0503-CC4E-B864-D660D790C293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-3600" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -216,18 +222,12 @@
     <t>Saffran et al. (1996)</t>
   </si>
   <si>
-    <t>Pelucchi et al. (2009)</t>
-  </si>
-  <si>
     <t>Maye et al. (2002)</t>
   </si>
   <si>
     <t>Smith &amp; Yu (2008)</t>
   </si>
   <si>
-    <t>Frost &amp; Monaghan (2020)</t>
-  </si>
-  <si>
     <t>Tomasello &amp; Carpenter (2007)</t>
   </si>
   <si>
@@ -250,12 +250,18 @@
   </si>
   <si>
     <t>Smith et al. (2019)</t>
+  </si>
+  <si>
+    <t>R. Frost et al. (2019)</t>
+  </si>
+  <si>
+    <t>R. L. A. Frost &amp; Monaghan (2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -600,6 +606,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -924,14 +938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
@@ -941,7 +955,7 @@
     <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1025,10 +1039,10 @@
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1045,16 +1059,16 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1085,7 +1099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1114,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1140,7 +1154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1227,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1258,7 +1272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1275,19 +1289,19 @@
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1304,16 +1318,16 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1346,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1363,19 +1377,19 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1404,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1459,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02EF78-0503-CC4E-B864-D660D790C293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68479CD3-4903-4C4C-9434-725787B69A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26760" yWindow="1080" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -108,21 +108,12 @@
     <t>(Due)</t>
   </si>
   <si>
-    <t>EEG, fNIRS, modeling</t>
-  </si>
-  <si>
-    <t>Headcam, looking time, sleep</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Related cognitive subsystems</t>
   </si>
   <si>
-    <t>LENA, fieldwork, RMTS</t>
-  </si>
-  <si>
     <t>Inference and underspecification</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>Bowerman (1980)</t>
   </si>
   <si>
-    <t>LWL, CDI, habituation, diary studies</t>
-  </si>
-  <si>
     <t>Kuhl et al. (2003)</t>
   </si>
   <si>
@@ -256,6 +244,33 @@
   </si>
   <si>
     <t>R. L. A. Frost &amp; Monaghan (2020)</t>
+  </si>
+  <si>
+    <t>Extra methods</t>
+  </si>
+  <si>
+    <t>fNIRS, modeling</t>
+  </si>
+  <si>
+    <t>habituation</t>
+  </si>
+  <si>
+    <t>looking time</t>
+  </si>
+  <si>
+    <t>RMTS</t>
+  </si>
+  <si>
+    <t>EEG (Snijders), preferential head turn (Fikkert)</t>
+  </si>
+  <si>
+    <t>LWL (Weisleder), CDI (Bergmann), diary studies (Clark)</t>
+  </si>
+  <si>
+    <t>Headcam (Bergelson), sleep studies (Frost)</t>
+  </si>
+  <si>
+    <t>Daylong audio (Cychosz), multi-population comparison (Scaff)</t>
   </si>
 </sst>
 </file>
@@ -459,13 +474,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -939,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,10 +968,11 @@
     <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -989,8 +1006,11 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1001,22 +1021,23 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1033,16 +1054,17 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1059,16 +1081,17 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1085,21 +1108,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1116,19 +1142,20 @@
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1145,16 +1172,17 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1171,19 +1199,20 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1200,19 +1229,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1226,22 +1256,23 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1258,21 +1289,24 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1289,19 +1323,20 @@
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1315,19 +1350,20 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1344,23 +1380,26 @@
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1377,19 +1416,20 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1403,22 +1443,23 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1432,19 +1473,20 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1458,22 +1500,23 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1490,21 +1533,24 @@
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1515,10 +1561,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1526,6 +1572,7 @@
       <c r="J20" t="s">
         <v>26</v>
       </c>
+      <c r="K20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68479CD3-4903-4C4C-9434-725787B69A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AA35A-89FC-024F-834E-E640726D3933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26760" yWindow="1080" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -261,16 +261,16 @@
     <t>RMTS</t>
   </si>
   <si>
-    <t>EEG (Snijders), preferential head turn (Fikkert)</t>
-  </si>
-  <si>
-    <t>LWL (Weisleder), CDI (Bergmann), diary studies (Clark)</t>
-  </si>
-  <si>
-    <t>Headcam (Bergelson), sleep studies (Frost)</t>
-  </si>
-  <si>
-    <t>Daylong audio (Cychosz), multi-population comparison (Scaff)</t>
+    <t>EEG (Snijders-confirmed), preferential head turn (Fikkert-confirmed)</t>
+  </si>
+  <si>
+    <t>Daylong audio (Cychosz-confirmed), multi-population comparison (Scaff)</t>
+  </si>
+  <si>
+    <t>LWL (Weisleder-confirmed), CDI (Bergmann-confirmed), diary studies (Clark-confirmed)</t>
+  </si>
+  <si>
+    <t>Headcam (Bergelson–confirmed), sleep studies (Frost)</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,7 +968,7 @@
     <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1300,7 +1300,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -1393,7 +1393,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
         <v>76</v>
@@ -1544,7 +1544,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
         <v>77</v>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AA35A-89FC-024F-834E-E640726D3933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4A4B3-3CD5-B641-8DAD-740A87A606B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>Kuhl et al. (2003)</t>
   </si>
   <si>
-    <t>Gergely et al. (2007)</t>
-  </si>
-  <si>
     <t>Scholl &amp; Tremoulet (2000)</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Headcam (Bergelson–confirmed), sleep studies (Frost)</t>
+  </si>
+  <si>
+    <t>Gergely &amp; Csibra (2003)</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1054,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1081,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1119,10 +1119,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1175,10 +1175,10 @@
         <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1300,10 +1300,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1323,13 +1323,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -1353,13 +1353,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1393,10 +1393,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1416,13 +1416,13 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1476,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1544,10 +1544,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4A4B3-3CD5-B641-8DAD-740A87A606B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238E3E6-28D4-B248-BF83-165B984B5B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>Gomez et al. (2006)</t>
   </si>
   <si>
-    <t>Smith et al. (2019)</t>
-  </si>
-  <si>
     <t>R. Frost et al. (2019)</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Gergely &amp; Csibra (2003)</t>
+  </si>
+  <si>
+    <t>Smith et al. (2018)</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1087,7 +1087,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1119,10 +1119,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>52</v>
@@ -1300,10 +1300,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1393,10 +1393,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1544,10 +1544,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238E3E6-28D4-B248-BF83-165B984B5B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4854F41-D667-1746-8BE9-B38EC1C4FABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33400" yWindow="-5560" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Week</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Smith et al. (2018)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EH exam in other course</t>
   </si>
 </sst>
 </file>
@@ -955,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,7 +978,7 @@
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1015,11 @@
       <c r="L1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1037,7 +1046,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1091,7 +1100,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1155,7 +1164,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1212,7 +1221,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1241,8 +1250,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1272,7 +1284,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1336,7 +1348,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1363,7 +1375,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1428,8 +1440,11 @@
         <v>14</v>
       </c>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4854F41-D667-1746-8BE9-B38EC1C4FABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466A935-FB42-8D48-B64D-813963626E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33400" yWindow="-5560" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +333,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -480,7 +486,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -488,6 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -964,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,13 +1069,13 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="6"/>
@@ -1089,13 +1096,13 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K4" s="6"/>
@@ -1150,13 +1157,13 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J6" t="s">
@@ -1180,13 +1187,13 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K7" s="6"/>
@@ -1207,13 +1214,13 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="J8" t="s">
@@ -1237,10 +1244,10 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466A935-FB42-8D48-B64D-813963626E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA10F834-0FEB-1D4F-B333-D0E12102A69A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33400" yWindow="-5560" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33400" yWindow="-5560" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>EEG (Snijders-confirmed), preferential head turn (Fikkert-confirmed)</t>
   </si>
   <si>
-    <t>Daylong audio (Cychosz-confirmed), multi-population comparison (Scaff)</t>
-  </si>
-  <si>
     <t>LWL (Weisleder-confirmed), CDI (Bergmann-confirmed), diary studies (Clark-confirmed)</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>EH exam in other course</t>
+  </si>
+  <si>
+    <t>Daylong audio (Cychosz-confirmed), multi-population comparison (Scaff-confirmed)</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1023,7 @@
         <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>52</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
@@ -1378,7 +1378,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1412,7 +1412,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
         <v>74</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="K15" s="6"/>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA10F834-0FEB-1D4F-B333-D0E12102A69A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147C086-104A-E049-A5C9-EE350345E743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33400" yWindow="-5560" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36280" yWindow="-6340" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -258,12 +258,6 @@
     <t>EEG (Snijders-confirmed), preferential head turn (Fikkert-confirmed)</t>
   </si>
   <si>
-    <t>LWL (Weisleder-confirmed), CDI (Bergmann-confirmed), diary studies (Clark-confirmed)</t>
-  </si>
-  <si>
-    <t>Headcam (Bergelson–confirmed), sleep studies (Frost)</t>
-  </si>
-  <si>
     <t>Gergely &amp; Csibra (2003)</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>Daylong audio (Cychosz-confirmed), multi-population comparison (Scaff-confirmed)</t>
+  </si>
+  <si>
+    <t>CDI (Bergmann-confirmed), diary studies (Clark-confirmed)</t>
+  </si>
+  <si>
+    <t>Headcam (Bergelson–confirmed), LWL (Weisleder-confirmed)</t>
   </si>
 </sst>
 </file>
@@ -971,11 +971,12 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
@@ -1023,7 +1024,7 @@
         <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1191,7 +1192,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>52</v>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1319,7 +1320,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
@@ -1378,7 +1379,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1412,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
         <v>74</v>
@@ -1448,7 +1449,7 @@
       </c>
       <c r="K15" s="6"/>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1566,7 +1567,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147C086-104A-E049-A5C9-EE350345E743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA3715-7686-1F46-B289-3210C11453F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36280" yWindow="-6340" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Frank et al. (2020) Ch 11</t>
   </si>
   <si>
-    <t>Blythe et al. (2020)</t>
-  </si>
-  <si>
     <t>Bergelson &amp; Aslin (2017)</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Headcam (Bergelson–confirmed), LWL (Weisleder-confirmed)</t>
+  </si>
+  <si>
+    <t>Mitchell &amp; Jordan (to appear)?</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,10 +1021,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1071,13 +1071,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1098,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1136,10 +1136,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1159,13 +1159,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -1189,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1251,15 +1251,15 @@
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
+      <c r="H9" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="6"/>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1279,13 +1279,13 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -1320,10 +1320,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1343,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -1373,13 +1373,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1413,10 +1413,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1436,20 +1436,20 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="6"/>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1499,13 +1499,13 @@
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1567,10 +1567,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA3715-7686-1F46-B289-3210C11453F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BCD51-0E7D-074B-8257-034B639A78AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36280" yWindow="-6340" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
     <t>Headcam (Bergelson–confirmed), LWL (Weisleder-confirmed)</t>
   </si>
   <si>
-    <t>Mitchell &amp; Jordan (to appear)?</t>
+    <t>Mitchell &amp; Jordan (to appear)</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BCD51-0E7D-074B-8257-034B639A78AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A296B-B951-FA46-B8EC-9D5013E2A020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36280" yWindow="-6340" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1251,7 @@
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A296B-B951-FA46-B8EC-9D5013E2A020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779CE30-3753-0E49-9405-92E4F5DAD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36280" yWindow="-6340" windowWidth="33400" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1251,7 @@
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
@@ -1278,13 +1278,13 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779CE30-3753-0E49-9405-92E4F5DAD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A785D-0D89-9F40-B179-34E539AF81C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBC-overview.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -971,7 +980,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,13 +1351,13 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J12" t="s">
@@ -1372,10 +1381,10 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="3" t="s">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A785D-0D89-9F40-B179-34E539AF81C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FC5C7-041A-BB4A-9DEB-2B7DBD764CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1387,7 @@
       <c r="G13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K13" s="6"/>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FC5C7-041A-BB4A-9DEB-2B7DBD764CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B55801-24D6-AF46-BE8A-93F56DDB7A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,13 +1444,13 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="I15" t="s">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B55801-24D6-AF46-BE8A-93F56DDB7A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D17A3-C03F-8D48-9E30-98A2E745BC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Social context effects</t>
   </si>
   <si>
-    <t>Brice Heath (TBD)</t>
-  </si>
-  <si>
     <t>He &amp; Arunachalam (2017)</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Mitchell &amp; Jordan (to appear)</t>
+  </si>
+  <si>
+    <t>Brice Heath ch 3 &amp; 4 (1983)</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,15 +489,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -980,7 +973,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,10 +1023,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1047,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1061,7 +1054,7 @@
       <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1079,16 +1072,16 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1106,16 +1099,16 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1144,11 +1137,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="6" t="s">
-        <v>75</v>
+      <c r="K5" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1167,19 +1160,19 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1197,16 +1190,16 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1224,19 +1217,19 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1254,21 +1247,21 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>83</v>
+      <c r="H9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="5"/>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1287,19 +1280,19 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1328,11 +1321,11 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6" t="s">
-        <v>81</v>
+      <c r="K11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1351,19 +1344,19 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1381,16 +1374,16 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1421,11 +1414,11 @@
       <c r="J14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>82</v>
+      <c r="K14" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1444,21 +1437,21 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1483,13 +1476,13 @@
       <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>38</v>
+      <c r="H16" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1508,15 +1501,15 @@
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1546,7 +1539,7 @@
       <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1575,11 +1568,11 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="6" t="s">
-        <v>80</v>
+      <c r="K19" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1604,7 +1597,7 @@
       <c r="J20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D17A3-C03F-8D48-9E30-98A2E745BC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5CA2A9-8E78-3442-B5A7-389B0B38C2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Rowe &amp; Weisleder (2020)</t>
   </si>
   <si>
-    <t>Unsworth (2016)</t>
-  </si>
-  <si>
     <t>Social context effects</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Brice Heath ch 3 &amp; 4 (1983)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,10 +1023,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1073,13 +1073,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -1100,13 +1100,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -1138,10 +1138,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1161,13 +1161,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -1191,13 +1191,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -1218,13 +1218,13 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -1248,20 +1248,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="5"/>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1281,13 +1281,13 @@
         <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -1322,10 +1322,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1345,13 +1345,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -1375,13 +1375,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -1415,10 +1415,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1438,20 +1438,20 @@
         <v>25</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="5"/>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1468,16 +1468,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
@@ -1498,16 +1498,16 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -1569,10 +1569,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/BBC-overview.xlsx
+++ b/BBC-overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcasillas/Documents/GitHub/chatterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5CA2A9-8E78-3442-B5A7-389B0B38C2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE74724-5118-0F40-B6D3-39336124E187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,14 +483,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -973,7 +966,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1047,7 @@
       <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1072,16 +1065,16 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1099,16 +1092,16 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1126,18 +1119,18 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L5" t="s">
@@ -1160,19 +1153,19 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1190,16 +1183,16 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1217,19 +1210,19 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1247,19 +1240,19 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4"/>
       <c r="M9" t="s">
         <v>77</v>
       </c>
@@ -1280,19 +1273,19 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1310,18 +1303,18 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>79</v>
       </c>
       <c r="L11" t="s">
@@ -1344,19 +1337,19 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1374,16 +1367,16 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1401,20 +1394,20 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="L14" t="s">
@@ -1437,19 +1430,19 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
       <c r="M15" t="s">
         <v>77</v>
       </c>
@@ -1470,19 +1463,19 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1500,16 +1493,16 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1527,19 +1520,19 @@
       <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1568,7 +1561,7 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="L19" t="s">
@@ -1597,7 +1590,7 @@
       <c r="J20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
